--- a/DATA_fac.xlsx
+++ b/DATA_fac.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docMgrJozefKiseľákPh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kiso\!Projekty\Stevka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0DE1E3-EA9E-4A92-8DEE-A14AF251AEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2866D719-36A1-4988-894C-DA0C880D1A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,9 +146,6 @@
     <t>Veľkosť školy</t>
   </si>
   <si>
-    <t>hl.mesto/kr.mesto/mesto/obec</t>
-  </si>
-  <si>
     <t>Nižšie sekundárne vzdelávanie</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>Vek kat.</t>
+  </si>
+  <si>
+    <t>hl.mesto\kr.mesto\mesto\obec</t>
   </si>
 </sst>
 </file>
@@ -271,9 +271,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -285,6 +282,9 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -323,18 +323,24 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B1:K1048576" totalsRowShown="0">
-  <autoFilter ref="B1:K1048576" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+  <autoFilter ref="B1:K1048576" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="muž"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pohlavie" dataDxfId="9"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Vek" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{5581CD6D-B26F-4593-9EB2-8CC378AF7EFD}" name="Vek kat." dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Prax 1.st. " dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Prax 2.st. " dataDxfId="6"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Aprobácia" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Zriaďovateľ" dataDxfId="4"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Veľkosť školy" dataDxfId="3"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="hl.mesto/kr.mesto/mesto/obec" dataDxfId="2"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Kraj" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5581CD6D-B26F-4593-9EB2-8CC378AF7EFD}" name="Vek kat." dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Prax 1.st. " dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Prax 2.st. " dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Aprobácia" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Zriaďovateľ" dataDxfId="3"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Veľkosť školy" dataDxfId="2"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="hl.mesto\kr.mesto\mesto\obec" dataDxfId="1"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Kraj" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -639,11 +645,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K410"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C334" sqref="C334"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" bestFit="1" customWidth="1"/>
@@ -667,7 +673,7 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
@@ -685,13 +691,13 @@
         <v>34</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -712,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
@@ -727,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <f>A2+1</f>
         <v>2</v>
@@ -749,7 +755,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -764,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A67" si="1">A3+1</f>
         <v>3</v>
@@ -786,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -801,7 +807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -823,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
@@ -838,7 +844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -860,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
@@ -875,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -897,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" t="s">
         <v>3</v>
@@ -912,7 +918,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -934,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
         <v>3</v>
@@ -949,7 +955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -971,7 +977,7 @@
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
@@ -986,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1008,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
@@ -1045,7 +1051,7 @@
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" t="s">
         <v>3</v>
@@ -1060,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1082,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
         <v>3</v>
@@ -1097,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1119,7 +1125,7 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s">
         <v>3</v>
@@ -1134,7 +1140,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1156,7 +1162,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
         <v>3</v>
@@ -1171,7 +1177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1193,7 +1199,7 @@
         <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" t="s">
         <v>3</v>
@@ -1230,7 +1236,7 @@
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -1245,7 +1251,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -1267,7 +1273,7 @@
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
@@ -1282,7 +1288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -1304,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" t="s">
         <v>3</v>
@@ -1341,7 +1347,7 @@
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
         <v>3</v>
@@ -1356,7 +1362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -1378,7 +1384,7 @@
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
         <v>3</v>
@@ -1393,7 +1399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1415,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" t="s">
         <v>3</v>
@@ -1452,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H22" t="s">
         <v>3</v>
@@ -1467,7 +1473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -1489,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H23" t="s">
         <v>3</v>
@@ -1504,7 +1510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -1526,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s">
         <v>3</v>
@@ -1541,7 +1547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -1563,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25" t="s">
         <v>3</v>
@@ -1578,7 +1584,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -1600,7 +1606,7 @@
         <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s">
         <v>3</v>
@@ -1615,7 +1621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -1637,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27" t="s">
         <v>3</v>
@@ -1652,7 +1658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -1674,7 +1680,7 @@
         <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28" t="s">
         <v>3</v>
@@ -1689,7 +1695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -1711,7 +1717,7 @@
         <v>10</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" t="s">
         <v>3</v>
@@ -1726,7 +1732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -1748,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
         <v>3</v>
@@ -1763,7 +1769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -1785,7 +1791,7 @@
         <v>10</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" t="s">
         <v>3</v>
@@ -1800,7 +1806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -1822,7 +1828,7 @@
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" t="s">
         <v>3</v>
@@ -1859,7 +1865,7 @@
         <v>16</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33" t="s">
         <v>3</v>
@@ -1874,7 +1880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -1896,7 +1902,7 @@
         <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34" t="s">
         <v>19</v>
@@ -1911,7 +1917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -1933,7 +1939,7 @@
         <v>10</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s">
         <v>3</v>
@@ -1948,7 +1954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -1970,7 +1976,7 @@
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36" t="s">
         <v>3</v>
@@ -1985,7 +1991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -2007,7 +2013,7 @@
         <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37" t="s">
         <v>3</v>
@@ -2044,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H38" t="s">
         <v>3</v>
@@ -2059,7 +2065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -2081,7 +2087,7 @@
         <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
         <v>3</v>
@@ -2096,7 +2102,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -2118,7 +2124,7 @@
         <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40" t="s">
         <v>3</v>
@@ -2133,7 +2139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -2155,7 +2161,7 @@
         <v>16</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41" t="s">
         <v>3</v>
@@ -2192,7 +2198,7 @@
         <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H42" t="s">
         <v>3</v>
@@ -2207,7 +2213,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2229,7 +2235,7 @@
         <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H43" t="s">
         <v>3</v>
@@ -2244,7 +2250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -2266,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s">
         <v>3</v>
@@ -2281,7 +2287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -2303,7 +2309,7 @@
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45" t="s">
         <v>3</v>
@@ -2318,7 +2324,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -2340,7 +2346,7 @@
         <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s">
         <v>3</v>
@@ -2355,7 +2361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -2377,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47" t="s">
         <v>3</v>
@@ -2392,7 +2398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -2414,7 +2420,7 @@
         <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s">
         <v>3</v>
@@ -2429,7 +2435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -2451,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49" t="s">
         <v>3</v>
@@ -2466,7 +2472,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -2488,7 +2494,7 @@
         <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s">
         <v>3</v>
@@ -2503,7 +2509,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -2525,7 +2531,7 @@
         <v>10</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s">
         <v>3</v>
@@ -2540,7 +2546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -2562,7 +2568,7 @@
         <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H52" t="s">
         <v>3</v>
@@ -2577,7 +2583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -2599,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53" t="s">
         <v>3</v>
@@ -2614,7 +2620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -2636,7 +2642,7 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54" t="s">
         <v>3</v>
@@ -2651,7 +2657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -2673,7 +2679,7 @@
         <v>10</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H55" t="s">
         <v>19</v>
@@ -2688,7 +2694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -2710,7 +2716,7 @@
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H56" t="s">
         <v>3</v>
@@ -2747,7 +2753,7 @@
         <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H57" t="s">
         <v>3</v>
@@ -2762,7 +2768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -2784,7 +2790,7 @@
         <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s">
         <v>3</v>
@@ -2799,7 +2805,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -2821,7 +2827,7 @@
         <v>10</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H59" t="s">
         <v>3</v>
@@ -2836,7 +2842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -2858,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H60" t="s">
         <v>3</v>
@@ -2873,7 +2879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -2895,7 +2901,7 @@
         <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61" t="s">
         <v>3</v>
@@ -2932,7 +2938,7 @@
         <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62" t="s">
         <v>3</v>
@@ -2947,7 +2953,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -2969,7 +2975,7 @@
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H63" t="s">
         <v>3</v>
@@ -2984,7 +2990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -3006,7 +3012,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64" t="s">
         <v>3</v>
@@ -3021,7 +3027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -3043,7 +3049,7 @@
         <v>10</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H65" t="s">
         <v>3</v>
@@ -3058,7 +3064,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -3080,7 +3086,7 @@
         <v>10</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H66" t="s">
         <v>3</v>
@@ -3095,7 +3101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <f t="shared" si="1"/>
         <v>66</v>
@@ -3117,7 +3123,7 @@
         <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H67" t="s">
         <v>3</v>
@@ -3132,7 +3138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <f t="shared" ref="A68:A131" si="3">A67+1</f>
         <v>67</v>
@@ -3154,7 +3160,7 @@
         <v>6</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H68" t="s">
         <v>19</v>
@@ -3169,7 +3175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <f t="shared" si="3"/>
         <v>68</v>
@@ -3191,7 +3197,7 @@
         <v>10</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H69" t="s">
         <v>19</v>
@@ -3206,7 +3212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <f t="shared" si="3"/>
         <v>69</v>
@@ -3228,7 +3234,7 @@
         <v>6</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H70" t="s">
         <v>3</v>
@@ -3243,7 +3249,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -3265,7 +3271,7 @@
         <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71" t="s">
         <v>19</v>
@@ -3280,7 +3286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <f t="shared" si="3"/>
         <v>71</v>
@@ -3302,7 +3308,7 @@
         <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H72" t="s">
         <v>3</v>
@@ -3317,7 +3323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <f t="shared" si="3"/>
         <v>72</v>
@@ -3339,7 +3345,7 @@
         <v>6</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73" t="s">
         <v>3</v>
@@ -3354,7 +3360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <f t="shared" si="3"/>
         <v>73</v>
@@ -3376,7 +3382,7 @@
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H74" t="s">
         <v>3</v>
@@ -3391,7 +3397,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <f t="shared" si="3"/>
         <v>74</v>
@@ -3413,7 +3419,7 @@
         <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75" t="s">
         <v>3</v>
@@ -3428,7 +3434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <f t="shared" si="3"/>
         <v>75</v>
@@ -3450,7 +3456,7 @@
         <v>10</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76" t="s">
         <v>3</v>
@@ -3465,7 +3471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <f t="shared" si="3"/>
         <v>76</v>
@@ -3487,7 +3493,7 @@
         <v>6</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H77" t="s">
         <v>3</v>
@@ -3502,7 +3508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <f t="shared" si="3"/>
         <v>77</v>
@@ -3524,7 +3530,7 @@
         <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H78" t="s">
         <v>3</v>
@@ -3539,7 +3545,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <f t="shared" si="3"/>
         <v>78</v>
@@ -3561,7 +3567,7 @@
         <v>16</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H79" t="s">
         <v>3</v>
@@ -3576,7 +3582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <f t="shared" si="3"/>
         <v>79</v>
@@ -3598,7 +3604,7 @@
         <v>6</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H80" t="s">
         <v>3</v>
@@ -3613,7 +3619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <f t="shared" si="3"/>
         <v>80</v>
@@ -3635,7 +3641,7 @@
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H81" t="s">
         <v>3</v>
@@ -3650,7 +3656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <f t="shared" si="3"/>
         <v>81</v>
@@ -3672,7 +3678,7 @@
         <v>6</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82" t="s">
         <v>3</v>
@@ -3687,7 +3693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <f t="shared" si="3"/>
         <v>82</v>
@@ -3709,7 +3715,7 @@
         <v>6</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83" t="s">
         <v>19</v>
@@ -3724,7 +3730,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -3746,7 +3752,7 @@
         <v>10</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H84" t="s">
         <v>3</v>
@@ -3761,7 +3767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <f t="shared" si="3"/>
         <v>84</v>
@@ -3783,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85" t="s">
         <v>3</v>
@@ -3798,7 +3804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <f t="shared" si="3"/>
         <v>85</v>
@@ -3820,7 +3826,7 @@
         <v>10</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H86" t="s">
         <v>3</v>
@@ -3835,7 +3841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <f t="shared" si="3"/>
         <v>86</v>
@@ -3857,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H87" t="s">
         <v>19</v>
@@ -3872,7 +3878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <f t="shared" si="3"/>
         <v>87</v>
@@ -3894,7 +3900,7 @@
         <v>10</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H88" t="s">
         <v>3</v>
@@ -3909,7 +3915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <f t="shared" si="3"/>
         <v>88</v>
@@ -3931,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H89" t="s">
         <v>3</v>
@@ -3946,7 +3952,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <f t="shared" si="3"/>
         <v>89</v>
@@ -3968,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90" t="s">
         <v>3</v>
@@ -3983,7 +3989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <f t="shared" si="3"/>
         <v>90</v>
@@ -4005,7 +4011,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H91" t="s">
         <v>3</v>
@@ -4020,7 +4026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <f t="shared" si="3"/>
         <v>91</v>
@@ -4042,7 +4048,7 @@
         <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92" t="s">
         <v>3</v>
@@ -4057,7 +4063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <f t="shared" si="3"/>
         <v>92</v>
@@ -4079,7 +4085,7 @@
         <v>10</v>
       </c>
       <c r="G93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H93" t="s">
         <v>3</v>
@@ -4116,7 +4122,7 @@
         <v>6</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H94" t="s">
         <v>3</v>
@@ -4153,7 +4159,7 @@
         <v>6</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95" t="s">
         <v>3</v>
@@ -4168,7 +4174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <f t="shared" si="3"/>
         <v>95</v>
@@ -4190,7 +4196,7 @@
         <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H96" t="s">
         <v>3</v>
@@ -4205,7 +4211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <f t="shared" si="3"/>
         <v>96</v>
@@ -4227,7 +4233,7 @@
         <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H97" t="s">
         <v>3</v>
@@ -4242,7 +4248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <f t="shared" si="3"/>
         <v>97</v>
@@ -4264,7 +4270,7 @@
         <v>6</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98" t="s">
         <v>3</v>
@@ -4279,7 +4285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <f t="shared" si="3"/>
         <v>98</v>
@@ -4301,7 +4307,7 @@
         <v>10</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H99" t="s">
         <v>3</v>
@@ -4338,7 +4344,7 @@
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H100" t="s">
         <v>3</v>
@@ -4353,7 +4359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <f t="shared" si="3"/>
         <v>100</v>
@@ -4375,7 +4381,7 @@
         <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H101" t="s">
         <v>3</v>
@@ -4390,7 +4396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <f t="shared" si="3"/>
         <v>101</v>
@@ -4412,7 +4418,7 @@
         <v>10</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H102" t="s">
         <v>3</v>
@@ -4427,7 +4433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <f t="shared" si="3"/>
         <v>102</v>
@@ -4449,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103" t="s">
         <v>3</v>
@@ -4464,7 +4470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <f t="shared" si="3"/>
         <v>103</v>
@@ -4486,7 +4492,7 @@
         <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H104" t="s">
         <v>3</v>
@@ -4523,7 +4529,7 @@
         <v>9</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105" t="s">
         <v>3</v>
@@ -4560,7 +4566,7 @@
         <v>6</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H106" t="s">
         <v>19</v>
@@ -4575,7 +4581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <f t="shared" si="3"/>
         <v>106</v>
@@ -4597,7 +4603,7 @@
         <v>6</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H107" t="s">
         <v>3</v>
@@ -4612,7 +4618,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <f t="shared" si="3"/>
         <v>107</v>
@@ -4634,7 +4640,7 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H108" t="s">
         <v>3</v>
@@ -4649,7 +4655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <f t="shared" si="3"/>
         <v>108</v>
@@ -4671,7 +4677,7 @@
         <v>6</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109" t="s">
         <v>3</v>
@@ -4686,7 +4692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <f t="shared" si="3"/>
         <v>109</v>
@@ -4708,7 +4714,7 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H110" t="s">
         <v>3</v>
@@ -4723,7 +4729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <f t="shared" si="3"/>
         <v>110</v>
@@ -4745,7 +4751,7 @@
         <v>6</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H111" t="s">
         <v>19</v>
@@ -4760,7 +4766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <f t="shared" si="3"/>
         <v>111</v>
@@ -4782,7 +4788,7 @@
         <v>16</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H112" t="s">
         <v>3</v>
@@ -4797,7 +4803,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <f t="shared" si="3"/>
         <v>112</v>
@@ -4819,7 +4825,7 @@
         <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113" t="s">
         <v>3</v>
@@ -4834,7 +4840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <f t="shared" si="3"/>
         <v>113</v>
@@ -4856,7 +4862,7 @@
         <v>9</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H114" t="s">
         <v>3</v>
@@ -4871,7 +4877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <f t="shared" si="3"/>
         <v>114</v>
@@ -4893,7 +4899,7 @@
         <v>16</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H115" t="s">
         <v>3</v>
@@ -4908,7 +4914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <f t="shared" si="3"/>
         <v>115</v>
@@ -4930,7 +4936,7 @@
         <v>6</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H116" t="s">
         <v>3</v>
@@ -4945,7 +4951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <f t="shared" si="3"/>
         <v>116</v>
@@ -4967,7 +4973,7 @@
         <v>9</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H117" t="s">
         <v>3</v>
@@ -4982,7 +4988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <f t="shared" si="3"/>
         <v>117</v>
@@ -5004,7 +5010,7 @@
         <v>16</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118" t="s">
         <v>3</v>
@@ -5019,7 +5025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <f t="shared" si="3"/>
         <v>118</v>
@@ -5041,7 +5047,7 @@
         <v>16</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H119" t="s">
         <v>3</v>
@@ -5078,7 +5084,7 @@
         <v>6</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120" t="s">
         <v>3</v>
@@ -5093,7 +5099,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <f t="shared" si="3"/>
         <v>120</v>
@@ -5115,7 +5121,7 @@
         <v>10</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H121" t="s">
         <v>3</v>
@@ -5130,7 +5136,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <f t="shared" si="3"/>
         <v>121</v>
@@ -5152,7 +5158,7 @@
         <v>6</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H122" t="s">
         <v>3</v>
@@ -5167,7 +5173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <f t="shared" si="3"/>
         <v>122</v>
@@ -5189,7 +5195,7 @@
         <v>10</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H123" t="s">
         <v>3</v>
@@ -5204,7 +5210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <f t="shared" si="3"/>
         <v>123</v>
@@ -5226,7 +5232,7 @@
         <v>6</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H124" t="s">
         <v>3</v>
@@ -5241,7 +5247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <f t="shared" si="3"/>
         <v>124</v>
@@ -5263,7 +5269,7 @@
         <v>10</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H125" t="s">
         <v>3</v>
@@ -5278,7 +5284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <f t="shared" si="3"/>
         <v>125</v>
@@ -5300,7 +5306,7 @@
         <v>6</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H126" t="s">
         <v>3</v>
@@ -5315,7 +5321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <f t="shared" si="3"/>
         <v>126</v>
@@ -5337,7 +5343,7 @@
         <v>6</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H127" t="s">
         <v>3</v>
@@ -5352,7 +5358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <f t="shared" si="3"/>
         <v>127</v>
@@ -5374,7 +5380,7 @@
         <v>6</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128" t="s">
         <v>19</v>
@@ -5389,7 +5395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <f t="shared" si="3"/>
         <v>128</v>
@@ -5411,7 +5417,7 @@
         <v>6</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H129" t="s">
         <v>3</v>
@@ -5426,7 +5432,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <f t="shared" si="3"/>
         <v>129</v>
@@ -5448,7 +5454,7 @@
         <v>10</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H130" t="s">
         <v>3</v>
@@ -5463,7 +5469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <f t="shared" si="3"/>
         <v>130</v>
@@ -5485,7 +5491,7 @@
         <v>6</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H131" t="s">
         <v>3</v>
@@ -5522,7 +5528,7 @@
         <v>6</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H132" t="s">
         <v>3</v>
@@ -5537,7 +5543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <f t="shared" si="5"/>
         <v>132</v>
@@ -5559,7 +5565,7 @@
         <v>16</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H133" t="s">
         <v>3</v>
@@ -5574,7 +5580,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <f t="shared" si="5"/>
         <v>133</v>
@@ -5596,7 +5602,7 @@
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H134" t="s">
         <v>3</v>
@@ -5611,7 +5617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <f t="shared" si="5"/>
         <v>134</v>
@@ -5633,7 +5639,7 @@
         <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H135" t="s">
         <v>3</v>
@@ -5648,7 +5654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <f t="shared" si="5"/>
         <v>135</v>
@@ -5670,7 +5676,7 @@
         <v>6</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H136" t="s">
         <v>3</v>
@@ -5685,7 +5691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <f t="shared" si="5"/>
         <v>136</v>
@@ -5707,7 +5713,7 @@
         <v>2</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137" t="s">
         <v>3</v>
@@ -5722,7 +5728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <f t="shared" si="5"/>
         <v>137</v>
@@ -5744,7 +5750,7 @@
         <v>6</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H138" t="s">
         <v>3</v>
@@ -5759,7 +5765,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <f t="shared" si="5"/>
         <v>138</v>
@@ -5781,7 +5787,7 @@
         <v>9</v>
       </c>
       <c r="G139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H139" t="s">
         <v>3</v>
@@ -5818,7 +5824,7 @@
         <v>2</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H140" t="s">
         <v>3</v>
@@ -5833,7 +5839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <f t="shared" si="5"/>
         <v>140</v>
@@ -5855,7 +5861,7 @@
         <v>6</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H141" t="s">
         <v>3</v>
@@ -5870,7 +5876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <f t="shared" si="5"/>
         <v>141</v>
@@ -5892,7 +5898,7 @@
         <v>10</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H142" t="s">
         <v>3</v>
@@ -5907,7 +5913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <f t="shared" si="5"/>
         <v>142</v>
@@ -5929,7 +5935,7 @@
         <v>6</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143" t="s">
         <v>3</v>
@@ -5944,7 +5950,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <f t="shared" si="5"/>
         <v>143</v>
@@ -5966,7 +5972,7 @@
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H144" t="s">
         <v>19</v>
@@ -6003,7 +6009,7 @@
         <v>9</v>
       </c>
       <c r="G145" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H145" t="s">
         <v>19</v>
@@ -6018,7 +6024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <f t="shared" si="5"/>
         <v>145</v>
@@ -6040,7 +6046,7 @@
         <v>2</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H146" t="s">
         <v>3</v>
@@ -6055,7 +6061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <f t="shared" si="5"/>
         <v>146</v>
@@ -6077,7 +6083,7 @@
         <v>16</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H147" t="s">
         <v>19</v>
@@ -6092,7 +6098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <f t="shared" si="5"/>
         <v>147</v>
@@ -6114,7 +6120,7 @@
         <v>10</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H148" t="s">
         <v>3</v>
@@ -6129,7 +6135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <f t="shared" si="5"/>
         <v>148</v>
@@ -6151,7 +6157,7 @@
         <v>6</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H149" t="s">
         <v>3</v>
@@ -6166,7 +6172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <f t="shared" si="5"/>
         <v>149</v>
@@ -6188,7 +6194,7 @@
         <v>6</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150" t="s">
         <v>3</v>
@@ -6203,7 +6209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <f t="shared" si="5"/>
         <v>150</v>
@@ -6225,7 +6231,7 @@
         <v>22</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151" t="s">
         <v>3</v>
@@ -6240,7 +6246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <f t="shared" si="5"/>
         <v>151</v>
@@ -6262,7 +6268,7 @@
         <v>6</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H152" t="s">
         <v>3</v>
@@ -6277,7 +6283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <f t="shared" si="5"/>
         <v>152</v>
@@ -6299,7 +6305,7 @@
         <v>22</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H153" t="s">
         <v>3</v>
@@ -6336,7 +6342,7 @@
         <v>6</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154" t="s">
         <v>3</v>
@@ -6351,7 +6357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <f t="shared" si="5"/>
         <v>154</v>
@@ -6373,7 +6379,7 @@
         <v>10</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H155" t="s">
         <v>3</v>
@@ -6388,7 +6394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <f t="shared" si="5"/>
         <v>155</v>
@@ -6410,7 +6416,7 @@
         <v>9</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H156" t="s">
         <v>3</v>
@@ -6425,7 +6431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <f t="shared" si="5"/>
         <v>156</v>
@@ -6447,7 +6453,7 @@
         <v>10</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H157" t="s">
         <v>3</v>
@@ -6484,7 +6490,7 @@
         <v>9</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H158" t="s">
         <v>19</v>
@@ -6499,7 +6505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <f t="shared" si="5"/>
         <v>158</v>
@@ -6521,7 +6527,7 @@
         <v>16</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H159" t="s">
         <v>3</v>
@@ -6558,7 +6564,7 @@
         <v>10</v>
       </c>
       <c r="G160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H160" t="s">
         <v>3</v>
@@ -6573,7 +6579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <f t="shared" si="5"/>
         <v>160</v>
@@ -6595,7 +6601,7 @@
         <v>10</v>
       </c>
       <c r="G161" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H161" t="s">
         <v>3</v>
@@ -6610,7 +6616,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <f t="shared" si="5"/>
         <v>161</v>
@@ -6632,7 +6638,7 @@
         <v>6</v>
       </c>
       <c r="G162" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H162" t="s">
         <v>3</v>
@@ -6647,7 +6653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <f t="shared" si="5"/>
         <v>162</v>
@@ -6669,7 +6675,7 @@
         <v>9</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H163" t="s">
         <v>3</v>
@@ -6684,7 +6690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <f t="shared" si="5"/>
         <v>163</v>
@@ -6706,7 +6712,7 @@
         <v>16</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H164" t="s">
         <v>3</v>
@@ -6743,7 +6749,7 @@
         <v>16</v>
       </c>
       <c r="G165" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H165" t="s">
         <v>3</v>
@@ -6758,7 +6764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <f t="shared" si="5"/>
         <v>165</v>
@@ -6780,7 +6786,7 @@
         <v>10</v>
       </c>
       <c r="G166" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H166" t="s">
         <v>3</v>
@@ -6817,7 +6823,7 @@
         <v>2</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H167" t="s">
         <v>3</v>
@@ -6832,7 +6838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <f t="shared" si="5"/>
         <v>167</v>
@@ -6854,7 +6860,7 @@
         <v>10</v>
       </c>
       <c r="G168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H168" t="s">
         <v>3</v>
@@ -6869,7 +6875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <f t="shared" si="5"/>
         <v>168</v>
@@ -6891,7 +6897,7 @@
         <v>10</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H169" t="s">
         <v>3</v>
@@ -6906,7 +6912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <f t="shared" si="5"/>
         <v>169</v>
@@ -6928,7 +6934,7 @@
         <v>22</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H170" t="s">
         <v>3</v>
@@ -6943,7 +6949,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -6965,7 +6971,7 @@
         <v>10</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H171" t="s">
         <v>3</v>
@@ -6980,7 +6986,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <f t="shared" si="5"/>
         <v>171</v>
@@ -7002,7 +7008,7 @@
         <v>2</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H172" t="s">
         <v>3</v>
@@ -7017,7 +7023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <f t="shared" si="5"/>
         <v>172</v>
@@ -7039,7 +7045,7 @@
         <v>2</v>
       </c>
       <c r="G173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H173" t="s">
         <v>3</v>
@@ -7054,7 +7060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <f t="shared" si="5"/>
         <v>173</v>
@@ -7076,7 +7082,7 @@
         <v>6</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174" t="s">
         <v>3</v>
@@ -7091,7 +7097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <f t="shared" si="5"/>
         <v>174</v>
@@ -7113,7 +7119,7 @@
         <v>10</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H175" t="s">
         <v>3</v>
@@ -7150,7 +7156,7 @@
         <v>6</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H176" t="s">
         <v>3</v>
@@ -7165,7 +7171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <f t="shared" si="5"/>
         <v>176</v>
@@ -7187,7 +7193,7 @@
         <v>16</v>
       </c>
       <c r="G177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H177" t="s">
         <v>25</v>
@@ -7202,7 +7208,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <f t="shared" si="5"/>
         <v>177</v>
@@ -7224,7 +7230,7 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H178" t="s">
         <v>3</v>
@@ -7239,7 +7245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <f t="shared" si="5"/>
         <v>178</v>
@@ -7261,7 +7267,7 @@
         <v>2</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H179" t="s">
         <v>3</v>
@@ -7276,7 +7282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <f t="shared" si="5"/>
         <v>179</v>
@@ -7298,7 +7304,7 @@
         <v>2</v>
       </c>
       <c r="G180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H180" t="s">
         <v>3</v>
@@ -7335,7 +7341,7 @@
         <v>6</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H181" t="s">
         <v>3</v>
@@ -7350,7 +7356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <f t="shared" si="5"/>
         <v>181</v>
@@ -7372,7 +7378,7 @@
         <v>6</v>
       </c>
       <c r="G182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H182" t="s">
         <v>3</v>
@@ -7387,7 +7393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <f t="shared" si="5"/>
         <v>182</v>
@@ -7409,7 +7415,7 @@
         <v>10</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H183" t="s">
         <v>3</v>
@@ -7446,7 +7452,7 @@
         <v>16</v>
       </c>
       <c r="G184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H184" t="s">
         <v>3</v>
@@ -7461,7 +7467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <f t="shared" si="5"/>
         <v>184</v>
@@ -7483,7 +7489,7 @@
         <v>6</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H185" t="s">
         <v>3</v>
@@ -7498,7 +7504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <f t="shared" si="5"/>
         <v>185</v>
@@ -7520,7 +7526,7 @@
         <v>6</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H186" t="s">
         <v>3</v>
@@ -7557,7 +7563,7 @@
         <v>16</v>
       </c>
       <c r="G187" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H187" t="s">
         <v>3</v>
@@ -7572,7 +7578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <f t="shared" si="5"/>
         <v>187</v>
@@ -7594,7 +7600,7 @@
         <v>10</v>
       </c>
       <c r="G188" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H188" t="s">
         <v>3</v>
@@ -7609,7 +7615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <f t="shared" si="5"/>
         <v>188</v>
@@ -7631,7 +7637,7 @@
         <v>16</v>
       </c>
       <c r="G189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H189" t="s">
         <v>25</v>
@@ -7668,7 +7674,7 @@
         <v>22</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H190" t="s">
         <v>3</v>
@@ -7683,7 +7689,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <f t="shared" si="5"/>
         <v>190</v>
@@ -7705,7 +7711,7 @@
         <v>6</v>
       </c>
       <c r="G191" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H191" t="s">
         <v>3</v>
@@ -7720,7 +7726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <f t="shared" si="5"/>
         <v>191</v>
@@ -7742,7 +7748,7 @@
         <v>10</v>
       </c>
       <c r="G192" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H192" t="s">
         <v>3</v>
@@ -7757,7 +7763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <f t="shared" si="5"/>
         <v>192</v>
@@ -7779,7 +7785,7 @@
         <v>9</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H193" t="s">
         <v>3</v>
@@ -7794,7 +7800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <f t="shared" si="5"/>
         <v>193</v>
@@ -7816,7 +7822,7 @@
         <v>2</v>
       </c>
       <c r="G194" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H194" t="s">
         <v>3</v>
@@ -7831,7 +7837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="4">
         <f t="shared" si="5"/>
         <v>194</v>
@@ -7853,7 +7859,7 @@
         <v>6</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H195" t="s">
         <v>3</v>
@@ -7868,7 +7874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <f t="shared" ref="A196:A259" si="7">A195+1</f>
         <v>195</v>
@@ -7890,7 +7896,7 @@
         <v>6</v>
       </c>
       <c r="G196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H196" t="s">
         <v>3</v>
@@ -7905,7 +7911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="4">
         <f t="shared" si="7"/>
         <v>196</v>
@@ -7927,7 +7933,7 @@
         <v>6</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H197" t="s">
         <v>3</v>
@@ -7942,7 +7948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <f t="shared" si="7"/>
         <v>197</v>
@@ -7964,7 +7970,7 @@
         <v>6</v>
       </c>
       <c r="G198" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H198" t="s">
         <v>3</v>
@@ -7979,7 +7985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="4">
         <f t="shared" si="7"/>
         <v>198</v>
@@ -8001,7 +8007,7 @@
         <v>2</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H199" t="s">
         <v>3</v>
@@ -8016,7 +8022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <f t="shared" si="7"/>
         <v>199</v>
@@ -8038,7 +8044,7 @@
         <v>16</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H200" t="s">
         <v>3</v>
@@ -8053,7 +8059,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="4">
         <f t="shared" si="7"/>
         <v>200</v>
@@ -8075,7 +8081,7 @@
         <v>6</v>
       </c>
       <c r="G201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H201" t="s">
         <v>3</v>
@@ -8112,7 +8118,7 @@
         <v>16</v>
       </c>
       <c r="G202" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H202" t="s">
         <v>3</v>
@@ -8127,7 +8133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="4">
         <f t="shared" si="7"/>
         <v>202</v>
@@ -8149,7 +8155,7 @@
         <v>6</v>
       </c>
       <c r="G203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H203" t="s">
         <v>3</v>
@@ -8164,7 +8170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <f t="shared" si="7"/>
         <v>203</v>
@@ -8186,7 +8192,7 @@
         <v>16</v>
       </c>
       <c r="G204" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H204" t="s">
         <v>3</v>
@@ -8201,7 +8207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="4">
         <f t="shared" si="7"/>
         <v>204</v>
@@ -8223,7 +8229,7 @@
         <v>2</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H205" t="s">
         <v>3</v>
@@ -8238,7 +8244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <f t="shared" si="7"/>
         <v>205</v>
@@ -8260,7 +8266,7 @@
         <v>10</v>
       </c>
       <c r="G206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H206" t="s">
         <v>3</v>
@@ -8275,7 +8281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="4">
         <f t="shared" si="7"/>
         <v>206</v>
@@ -8297,7 +8303,7 @@
         <v>6</v>
       </c>
       <c r="G207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H207" t="s">
         <v>3</v>
@@ -8312,7 +8318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <f t="shared" si="7"/>
         <v>207</v>
@@ -8334,7 +8340,7 @@
         <v>9</v>
       </c>
       <c r="G208" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H208" t="s">
         <v>3</v>
@@ -8349,7 +8355,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="4">
         <f t="shared" si="7"/>
         <v>208</v>
@@ -8371,7 +8377,7 @@
         <v>16</v>
       </c>
       <c r="G209" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H209" t="s">
         <v>3</v>
@@ -8386,7 +8392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <f t="shared" si="7"/>
         <v>209</v>
@@ -8408,7 +8414,7 @@
         <v>9</v>
       </c>
       <c r="G210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H210" t="s">
         <v>3</v>
@@ -8423,7 +8429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4">
         <f t="shared" si="7"/>
         <v>210</v>
@@ -8445,7 +8451,7 @@
         <v>10</v>
       </c>
       <c r="G211" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H211" t="s">
         <v>3</v>
@@ -8460,7 +8466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <f t="shared" si="7"/>
         <v>211</v>
@@ -8482,7 +8488,7 @@
         <v>16</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H212" t="s">
         <v>3</v>
@@ -8497,7 +8503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4">
         <f t="shared" si="7"/>
         <v>212</v>
@@ -8519,7 +8525,7 @@
         <v>2</v>
       </c>
       <c r="G213" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H213" t="s">
         <v>3</v>
@@ -8556,7 +8562,7 @@
         <v>6</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214" t="s">
         <v>3</v>
@@ -8571,7 +8577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4">
         <f t="shared" si="7"/>
         <v>214</v>
@@ -8593,7 +8599,7 @@
         <v>10</v>
       </c>
       <c r="G215" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H215" t="s">
         <v>3</v>
@@ -8608,7 +8614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <f t="shared" si="7"/>
         <v>215</v>
@@ -8630,7 +8636,7 @@
         <v>6</v>
       </c>
       <c r="G216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H216" t="s">
         <v>3</v>
@@ -8645,7 +8651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4">
         <f t="shared" si="7"/>
         <v>216</v>
@@ -8667,7 +8673,7 @@
         <v>10</v>
       </c>
       <c r="G217" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H217" t="s">
         <v>3</v>
@@ -8682,7 +8688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <f t="shared" si="7"/>
         <v>217</v>
@@ -8704,7 +8710,7 @@
         <v>10</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H218" t="s">
         <v>3</v>
@@ -8719,7 +8725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4">
         <f t="shared" si="7"/>
         <v>218</v>
@@ -8741,7 +8747,7 @@
         <v>6</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H219" t="s">
         <v>3</v>
@@ -8756,7 +8762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <f t="shared" si="7"/>
         <v>219</v>
@@ -8778,7 +8784,7 @@
         <v>6</v>
       </c>
       <c r="G220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H220" t="s">
         <v>3</v>
@@ -8793,7 +8799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4">
         <f t="shared" si="7"/>
         <v>220</v>
@@ -8815,7 +8821,7 @@
         <v>16</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H221" t="s">
         <v>3</v>
@@ -8830,7 +8836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <f t="shared" si="7"/>
         <v>221</v>
@@ -8852,7 +8858,7 @@
         <v>10</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H222" t="s">
         <v>3</v>
@@ -8867,7 +8873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4">
         <f t="shared" si="7"/>
         <v>222</v>
@@ -8889,7 +8895,7 @@
         <v>2</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H223" t="s">
         <v>3</v>
@@ -8926,7 +8932,7 @@
         <v>16</v>
       </c>
       <c r="G224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H224" t="s">
         <v>3</v>
@@ -8941,7 +8947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4">
         <f t="shared" si="7"/>
         <v>224</v>
@@ -8963,7 +8969,7 @@
         <v>6</v>
       </c>
       <c r="G225" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H225" t="s">
         <v>3</v>
@@ -8978,7 +8984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <f t="shared" si="7"/>
         <v>225</v>
@@ -9000,7 +9006,7 @@
         <v>22</v>
       </c>
       <c r="G226" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H226" t="s">
         <v>3</v>
@@ -9015,7 +9021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4">
         <f t="shared" si="7"/>
         <v>226</v>
@@ -9037,7 +9043,7 @@
         <v>10</v>
       </c>
       <c r="G227" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H227" t="s">
         <v>3</v>
@@ -9052,7 +9058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <f t="shared" si="7"/>
         <v>227</v>
@@ -9074,7 +9080,7 @@
         <v>22</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H228" t="s">
         <v>3</v>
@@ -9089,7 +9095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4">
         <f t="shared" si="7"/>
         <v>228</v>
@@ -9111,7 +9117,7 @@
         <v>22</v>
       </c>
       <c r="G229" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H229" t="s">
         <v>3</v>
@@ -9126,7 +9132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <f t="shared" si="7"/>
         <v>229</v>
@@ -9148,7 +9154,7 @@
         <v>10</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H230" t="s">
         <v>19</v>
@@ -9163,7 +9169,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4">
         <f t="shared" si="7"/>
         <v>230</v>
@@ -9185,7 +9191,7 @@
         <v>22</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H231" t="s">
         <v>3</v>
@@ -9200,7 +9206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <f t="shared" si="7"/>
         <v>231</v>
@@ -9222,7 +9228,7 @@
         <v>10</v>
       </c>
       <c r="G232" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H232" t="s">
         <v>3</v>
@@ -9237,7 +9243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4">
         <f t="shared" si="7"/>
         <v>232</v>
@@ -9259,7 +9265,7 @@
         <v>10</v>
       </c>
       <c r="G233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H233" t="s">
         <v>3</v>
@@ -9296,7 +9302,7 @@
         <v>10</v>
       </c>
       <c r="G234" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H234" t="s">
         <v>3</v>
@@ -9311,7 +9317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4">
         <f t="shared" si="7"/>
         <v>234</v>
@@ -9333,7 +9339,7 @@
         <v>16</v>
       </c>
       <c r="G235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H235" t="s">
         <v>3</v>
@@ -9348,7 +9354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <f t="shared" si="7"/>
         <v>235</v>
@@ -9370,7 +9376,7 @@
         <v>10</v>
       </c>
       <c r="G236" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H236" t="s">
         <v>3</v>
@@ -9385,7 +9391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4">
         <f t="shared" si="7"/>
         <v>236</v>
@@ -9407,7 +9413,7 @@
         <v>10</v>
       </c>
       <c r="G237" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H237" t="s">
         <v>3</v>
@@ -9422,7 +9428,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <f t="shared" si="7"/>
         <v>237</v>
@@ -9444,7 +9450,7 @@
         <v>9</v>
       </c>
       <c r="G238" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H238" t="s">
         <v>3</v>
@@ -9459,7 +9465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4">
         <f t="shared" si="7"/>
         <v>238</v>
@@ -9481,7 +9487,7 @@
         <v>2</v>
       </c>
       <c r="G239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H239" t="s">
         <v>3</v>
@@ -9496,7 +9502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <f t="shared" si="7"/>
         <v>239</v>
@@ -9518,7 +9524,7 @@
         <v>10</v>
       </c>
       <c r="G240" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H240" t="s">
         <v>3</v>
@@ -9533,7 +9539,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4">
         <f t="shared" si="7"/>
         <v>240</v>
@@ -9555,7 +9561,7 @@
         <v>10</v>
       </c>
       <c r="G241" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H241" t="s">
         <v>3</v>
@@ -9570,7 +9576,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <f t="shared" si="7"/>
         <v>241</v>
@@ -9592,7 +9598,7 @@
         <v>10</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H242" t="s">
         <v>3</v>
@@ -9607,7 +9613,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4">
         <f t="shared" si="7"/>
         <v>242</v>
@@ -9629,7 +9635,7 @@
         <v>10</v>
       </c>
       <c r="G243" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H243" t="s">
         <v>3</v>
@@ -9644,7 +9650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <f t="shared" si="7"/>
         <v>243</v>
@@ -9666,7 +9672,7 @@
         <v>10</v>
       </c>
       <c r="G244" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H244" t="s">
         <v>3</v>
@@ -9681,7 +9687,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4">
         <f t="shared" si="7"/>
         <v>244</v>
@@ -9703,7 +9709,7 @@
         <v>10</v>
       </c>
       <c r="G245" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H245" t="s">
         <v>3</v>
@@ -9718,7 +9724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <f t="shared" si="7"/>
         <v>245</v>
@@ -9740,7 +9746,7 @@
         <v>16</v>
       </c>
       <c r="G246" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H246" t="s">
         <v>3</v>
@@ -9755,7 +9761,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4">
         <f t="shared" si="7"/>
         <v>246</v>
@@ -9777,7 +9783,7 @@
         <v>22</v>
       </c>
       <c r="G247" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H247" t="s">
         <v>3</v>
@@ -9792,7 +9798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <f t="shared" si="7"/>
         <v>247</v>
@@ -9814,7 +9820,7 @@
         <v>22</v>
       </c>
       <c r="G248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H248" t="s">
         <v>3</v>
@@ -9829,7 +9835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4">
         <f t="shared" si="7"/>
         <v>248</v>
@@ -9851,7 +9857,7 @@
         <v>16</v>
       </c>
       <c r="G249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H249" t="s">
         <v>3</v>
@@ -9866,7 +9872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <f t="shared" si="7"/>
         <v>249</v>
@@ -9888,7 +9894,7 @@
         <v>9</v>
       </c>
       <c r="G250" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H250" t="s">
         <v>3</v>
@@ -9925,7 +9931,7 @@
         <v>9</v>
       </c>
       <c r="G251" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H251" t="s">
         <v>3</v>
@@ -9940,7 +9946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <f t="shared" si="7"/>
         <v>251</v>
@@ -9962,7 +9968,7 @@
         <v>10</v>
       </c>
       <c r="G252" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H252" t="s">
         <v>3</v>
@@ -9977,7 +9983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4">
         <f t="shared" si="7"/>
         <v>252</v>
@@ -9999,7 +10005,7 @@
         <v>22</v>
       </c>
       <c r="G253" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H253" t="s">
         <v>19</v>
@@ -10036,7 +10042,7 @@
         <v>9</v>
       </c>
       <c r="G254" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H254" t="s">
         <v>3</v>
@@ -10051,7 +10057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4">
         <f t="shared" si="7"/>
         <v>254</v>
@@ -10073,7 +10079,7 @@
         <v>10</v>
       </c>
       <c r="G255" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H255" t="s">
         <v>3</v>
@@ -10088,7 +10094,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <f t="shared" si="7"/>
         <v>255</v>
@@ -10110,7 +10116,7 @@
         <v>10</v>
       </c>
       <c r="G256" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H256" t="s">
         <v>3</v>
@@ -10125,7 +10131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4">
         <f t="shared" si="7"/>
         <v>256</v>
@@ -10147,7 +10153,7 @@
         <v>16</v>
       </c>
       <c r="G257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H257" t="s">
         <v>25</v>
@@ -10162,7 +10168,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <f t="shared" si="7"/>
         <v>257</v>
@@ -10184,7 +10190,7 @@
         <v>10</v>
       </c>
       <c r="G258" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H258" t="s">
         <v>3</v>
@@ -10199,7 +10205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4">
         <f t="shared" si="7"/>
         <v>258</v>
@@ -10221,7 +10227,7 @@
         <v>10</v>
       </c>
       <c r="G259" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H259" t="s">
         <v>3</v>
@@ -10236,7 +10242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <f t="shared" ref="A260:A323" si="9">A259+1</f>
         <v>259</v>
@@ -10258,7 +10264,7 @@
         <v>10</v>
       </c>
       <c r="G260" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H260" t="s">
         <v>19</v>
@@ -10273,7 +10279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4">
         <f t="shared" si="9"/>
         <v>260</v>
@@ -10295,7 +10301,7 @@
         <v>2</v>
       </c>
       <c r="G261" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H261" t="s">
         <v>3</v>
@@ -10310,7 +10316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <f t="shared" si="9"/>
         <v>261</v>
@@ -10332,7 +10338,7 @@
         <v>16</v>
       </c>
       <c r="G262" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H262" t="s">
         <v>3</v>
@@ -10347,7 +10353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4">
         <f t="shared" si="9"/>
         <v>262</v>
@@ -10369,7 +10375,7 @@
         <v>22</v>
       </c>
       <c r="G263" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H263" t="s">
         <v>3</v>
@@ -10384,7 +10390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <f t="shared" si="9"/>
         <v>263</v>
@@ -10406,7 +10412,7 @@
         <v>16</v>
       </c>
       <c r="G264" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H264" t="s">
         <v>3</v>
@@ -10421,7 +10427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4">
         <f t="shared" si="9"/>
         <v>264</v>
@@ -10443,7 +10449,7 @@
         <v>22</v>
       </c>
       <c r="G265" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H265" t="s">
         <v>3</v>
@@ -10458,7 +10464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <f t="shared" si="9"/>
         <v>265</v>
@@ -10480,7 +10486,7 @@
         <v>22</v>
       </c>
       <c r="G266" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H266" t="s">
         <v>3</v>
@@ -10495,7 +10501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4">
         <f t="shared" si="9"/>
         <v>266</v>
@@ -10517,7 +10523,7 @@
         <v>10</v>
       </c>
       <c r="G267" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H267" t="s">
         <v>3</v>
@@ -10532,7 +10538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <f t="shared" si="9"/>
         <v>267</v>
@@ -10554,7 +10560,7 @@
         <v>16</v>
       </c>
       <c r="G268" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H268" t="s">
         <v>3</v>
@@ -10569,7 +10575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4">
         <f t="shared" si="9"/>
         <v>268</v>
@@ -10591,7 +10597,7 @@
         <v>9</v>
       </c>
       <c r="G269" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H269" t="s">
         <v>3</v>
@@ -10606,7 +10612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <f t="shared" si="9"/>
         <v>269</v>
@@ -10628,7 +10634,7 @@
         <v>10</v>
       </c>
       <c r="G270" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H270" t="s">
         <v>3</v>
@@ -10643,7 +10649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4">
         <f t="shared" si="9"/>
         <v>270</v>
@@ -10665,7 +10671,7 @@
         <v>16</v>
       </c>
       <c r="G271" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H271" t="s">
         <v>3</v>
@@ -10680,7 +10686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <f t="shared" si="9"/>
         <v>271</v>
@@ -10702,7 +10708,7 @@
         <v>2</v>
       </c>
       <c r="G272" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H272" t="s">
         <v>3</v>
@@ -10717,7 +10723,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4">
         <f t="shared" si="9"/>
         <v>272</v>
@@ -10739,7 +10745,7 @@
         <v>16</v>
       </c>
       <c r="G273" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H273" t="s">
         <v>3</v>
@@ -10754,7 +10760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <f t="shared" si="9"/>
         <v>273</v>
@@ -10776,7 +10782,7 @@
         <v>10</v>
       </c>
       <c r="G274" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H274" t="s">
         <v>3</v>
@@ -10791,7 +10797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4">
         <f t="shared" si="9"/>
         <v>274</v>
@@ -10813,7 +10819,7 @@
         <v>10</v>
       </c>
       <c r="G275" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H275" t="s">
         <v>19</v>
@@ -10828,7 +10834,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <f t="shared" si="9"/>
         <v>275</v>
@@ -10850,7 +10856,7 @@
         <v>9</v>
       </c>
       <c r="G276" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H276" t="s">
         <v>3</v>
@@ -10865,7 +10871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4">
         <f t="shared" si="9"/>
         <v>276</v>
@@ -10887,7 +10893,7 @@
         <v>10</v>
       </c>
       <c r="G277" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H277" t="s">
         <v>3</v>
@@ -10902,7 +10908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <f t="shared" si="9"/>
         <v>277</v>
@@ -10924,7 +10930,7 @@
         <v>16</v>
       </c>
       <c r="G278" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H278" t="s">
         <v>3</v>
@@ -10939,7 +10945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4">
         <f t="shared" si="9"/>
         <v>278</v>
@@ -10961,7 +10967,7 @@
         <v>10</v>
       </c>
       <c r="G279" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H279" t="s">
         <v>3</v>
@@ -10976,7 +10982,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <f t="shared" si="9"/>
         <v>279</v>
@@ -10998,7 +11004,7 @@
         <v>10</v>
       </c>
       <c r="G280" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H280" t="s">
         <v>3</v>
@@ -11013,7 +11019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4">
         <f t="shared" si="9"/>
         <v>280</v>
@@ -11035,7 +11041,7 @@
         <v>10</v>
       </c>
       <c r="G281" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H281" t="s">
         <v>3</v>
@@ -11050,7 +11056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <f t="shared" si="9"/>
         <v>281</v>
@@ -11072,7 +11078,7 @@
         <v>10</v>
       </c>
       <c r="G282" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H282" t="s">
         <v>3</v>
@@ -11087,7 +11093,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4">
         <f t="shared" si="9"/>
         <v>282</v>
@@ -11109,7 +11115,7 @@
         <v>16</v>
       </c>
       <c r="G283" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H283" t="s">
         <v>3</v>
@@ -11124,7 +11130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <f t="shared" si="9"/>
         <v>283</v>
@@ -11146,7 +11152,7 @@
         <v>16</v>
       </c>
       <c r="G284" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H284" t="s">
         <v>3</v>
@@ -11161,7 +11167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4">
         <f t="shared" si="9"/>
         <v>284</v>
@@ -11183,7 +11189,7 @@
         <v>10</v>
       </c>
       <c r="G285" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H285" t="s">
         <v>3</v>
@@ -11198,7 +11204,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <f t="shared" si="9"/>
         <v>285</v>
@@ -11220,7 +11226,7 @@
         <v>9</v>
       </c>
       <c r="G286" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H286" t="s">
         <v>3</v>
@@ -11257,7 +11263,7 @@
         <v>16</v>
       </c>
       <c r="G287" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H287" t="s">
         <v>3</v>
@@ -11272,7 +11278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <f t="shared" si="9"/>
         <v>287</v>
@@ -11294,7 +11300,7 @@
         <v>16</v>
       </c>
       <c r="G288" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H288" t="s">
         <v>3</v>
@@ -11309,7 +11315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4">
         <f t="shared" si="9"/>
         <v>288</v>
@@ -11331,7 +11337,7 @@
         <v>16</v>
       </c>
       <c r="G289" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H289" t="s">
         <v>3</v>
@@ -11346,7 +11352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <f t="shared" si="9"/>
         <v>289</v>
@@ -11368,7 +11374,7 @@
         <v>22</v>
       </c>
       <c r="G290" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H290" t="s">
         <v>3</v>
@@ -11383,7 +11389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="4">
         <f t="shared" si="9"/>
         <v>290</v>
@@ -11405,7 +11411,7 @@
         <v>10</v>
       </c>
       <c r="G291" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H291" t="s">
         <v>3</v>
@@ -11442,7 +11448,7 @@
         <v>10</v>
       </c>
       <c r="G292" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H292" t="s">
         <v>3</v>
@@ -11457,7 +11463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4">
         <f t="shared" si="9"/>
         <v>292</v>
@@ -11479,7 +11485,7 @@
         <v>16</v>
       </c>
       <c r="G293" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H293" t="s">
         <v>3</v>
@@ -11516,7 +11522,7 @@
         <v>16</v>
       </c>
       <c r="G294" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H294" t="s">
         <v>3</v>
@@ -11531,7 +11537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4">
         <f t="shared" si="9"/>
         <v>294</v>
@@ -11553,7 +11559,7 @@
         <v>10</v>
       </c>
       <c r="G295" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H295" t="s">
         <v>3</v>
@@ -11568,7 +11574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <f t="shared" si="9"/>
         <v>295</v>
@@ -11590,7 +11596,7 @@
         <v>10</v>
       </c>
       <c r="G296" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H296" t="s">
         <v>3</v>
@@ -11605,7 +11611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4">
         <f t="shared" si="9"/>
         <v>296</v>
@@ -11627,7 +11633,7 @@
         <v>10</v>
       </c>
       <c r="G297" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H297" t="s">
         <v>25</v>
@@ -11642,7 +11648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <f t="shared" si="9"/>
         <v>297</v>
@@ -11664,7 +11670,7 @@
         <v>22</v>
       </c>
       <c r="G298" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H298" t="s">
         <v>3</v>
@@ -11679,7 +11685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="4">
         <f t="shared" si="9"/>
         <v>298</v>
@@ -11701,7 +11707,7 @@
         <v>10</v>
       </c>
       <c r="G299" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H299" t="s">
         <v>3</v>
@@ -11716,7 +11722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <f t="shared" si="9"/>
         <v>299</v>
@@ -11738,7 +11744,7 @@
         <v>10</v>
       </c>
       <c r="G300" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H300" t="s">
         <v>3</v>
@@ -11753,7 +11759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4">
         <f t="shared" si="9"/>
         <v>300</v>
@@ -11775,7 +11781,7 @@
         <v>9</v>
       </c>
       <c r="G301" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H301" t="s">
         <v>3</v>
@@ -11790,7 +11796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <f t="shared" si="9"/>
         <v>301</v>
@@ -11812,7 +11818,7 @@
         <v>10</v>
       </c>
       <c r="G302" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H302" t="s">
         <v>3</v>
@@ -11827,7 +11833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4">
         <f t="shared" si="9"/>
         <v>302</v>
@@ -11849,7 +11855,7 @@
         <v>16</v>
       </c>
       <c r="G303" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H303" t="s">
         <v>3</v>
@@ -11864,7 +11870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <f t="shared" si="9"/>
         <v>303</v>
@@ -11886,7 +11892,7 @@
         <v>10</v>
       </c>
       <c r="G304" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H304" t="s">
         <v>3</v>
@@ -11901,7 +11907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4">
         <f t="shared" si="9"/>
         <v>304</v>
@@ -11923,7 +11929,7 @@
         <v>10</v>
       </c>
       <c r="G305" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H305" t="s">
         <v>3</v>
@@ -11938,7 +11944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <f t="shared" si="9"/>
         <v>305</v>
@@ -11960,7 +11966,7 @@
         <v>10</v>
       </c>
       <c r="G306" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H306" t="s">
         <v>3</v>
@@ -11975,7 +11981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4">
         <f t="shared" si="9"/>
         <v>306</v>
@@ -11997,7 +12003,7 @@
         <v>22</v>
       </c>
       <c r="G307" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H307" t="s">
         <v>3</v>
@@ -12012,7 +12018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <f t="shared" si="9"/>
         <v>307</v>
@@ -12034,7 +12040,7 @@
         <v>9</v>
       </c>
       <c r="G308" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H308" t="s">
         <v>3</v>
@@ -12049,7 +12055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="4">
         <f t="shared" si="9"/>
         <v>308</v>
@@ -12071,7 +12077,7 @@
         <v>10</v>
       </c>
       <c r="G309" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H309" t="s">
         <v>3</v>
@@ -12108,7 +12114,7 @@
         <v>9</v>
       </c>
       <c r="G310" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H310" t="s">
         <v>3</v>
@@ -12123,7 +12129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4">
         <f t="shared" si="9"/>
         <v>310</v>
@@ -12145,7 +12151,7 @@
         <v>2</v>
       </c>
       <c r="G311" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H311" t="s">
         <v>19</v>
@@ -12160,7 +12166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <f t="shared" si="9"/>
         <v>311</v>
@@ -12182,7 +12188,7 @@
         <v>2</v>
       </c>
       <c r="G312" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H312" t="s">
         <v>3</v>
@@ -12197,7 +12203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4">
         <f t="shared" si="9"/>
         <v>312</v>
@@ -12219,7 +12225,7 @@
         <v>9</v>
       </c>
       <c r="G313" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H313" t="s">
         <v>3</v>
@@ -12234,7 +12240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
         <f t="shared" si="9"/>
         <v>313</v>
@@ -12256,7 +12262,7 @@
         <v>22</v>
       </c>
       <c r="G314" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H314" t="s">
         <v>3</v>
@@ -12271,7 +12277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4">
         <f t="shared" si="9"/>
         <v>314</v>
@@ -12293,7 +12299,7 @@
         <v>10</v>
       </c>
       <c r="G315" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H315" t="s">
         <v>3</v>
@@ -12308,7 +12314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <f t="shared" si="9"/>
         <v>315</v>
@@ -12330,7 +12336,7 @@
         <v>16</v>
       </c>
       <c r="G316" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H316" t="s">
         <v>3</v>
@@ -12345,7 +12351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4">
         <f t="shared" si="9"/>
         <v>316</v>
@@ -12367,7 +12373,7 @@
         <v>16</v>
       </c>
       <c r="G317" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H317" t="s">
         <v>3</v>
@@ -12382,7 +12388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <f t="shared" si="9"/>
         <v>317</v>
@@ -12404,7 +12410,7 @@
         <v>22</v>
       </c>
       <c r="G318" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H318" t="s">
         <v>3</v>
@@ -12419,7 +12425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="4">
         <f t="shared" si="9"/>
         <v>318</v>
@@ -12441,7 +12447,7 @@
         <v>16</v>
       </c>
       <c r="G319" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H319" t="s">
         <v>3</v>
@@ -12456,7 +12462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <f t="shared" si="9"/>
         <v>319</v>
@@ -12478,7 +12484,7 @@
         <v>10</v>
       </c>
       <c r="G320" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H320" t="s">
         <v>3</v>
@@ -12493,7 +12499,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="4">
         <f t="shared" si="9"/>
         <v>320</v>
@@ -12515,7 +12521,7 @@
         <v>10</v>
       </c>
       <c r="G321" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H321" t="s">
         <v>19</v>
@@ -12530,7 +12536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <f t="shared" si="9"/>
         <v>321</v>
@@ -12552,7 +12558,7 @@
         <v>9</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H322" t="s">
         <v>25</v>
@@ -12567,7 +12573,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4">
         <f t="shared" si="9"/>
         <v>322</v>
@@ -12589,7 +12595,7 @@
         <v>9</v>
       </c>
       <c r="G323" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H323" t="s">
         <v>3</v>
@@ -12604,7 +12610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <f t="shared" ref="A324:A372" si="11">A323+1</f>
         <v>323</v>
@@ -12626,7 +12632,7 @@
         <v>10</v>
       </c>
       <c r="G324" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H324" t="s">
         <v>3</v>
@@ -12641,7 +12647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="4">
         <f t="shared" si="11"/>
         <v>324</v>
@@ -12663,7 +12669,7 @@
         <v>10</v>
       </c>
       <c r="G325" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H325" t="s">
         <v>3</v>
@@ -12678,7 +12684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <f t="shared" si="11"/>
         <v>325</v>
@@ -12700,7 +12706,7 @@
         <v>16</v>
       </c>
       <c r="G326" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H326" t="s">
         <v>3</v>
@@ -12715,7 +12721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="4">
         <f t="shared" si="11"/>
         <v>326</v>
@@ -12737,7 +12743,7 @@
         <v>2</v>
       </c>
       <c r="G327" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H327" t="s">
         <v>3</v>
@@ -12752,7 +12758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <f t="shared" si="11"/>
         <v>327</v>
@@ -12774,7 +12780,7 @@
         <v>10</v>
       </c>
       <c r="G328" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H328" t="s">
         <v>3</v>
@@ -12789,7 +12795,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4">
         <f t="shared" si="11"/>
         <v>328</v>
@@ -12811,7 +12817,7 @@
         <v>16</v>
       </c>
       <c r="G329" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H329" t="s">
         <v>3</v>
@@ -12826,7 +12832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <f t="shared" si="11"/>
         <v>329</v>
@@ -12848,7 +12854,7 @@
         <v>22</v>
       </c>
       <c r="G330" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H330" t="s">
         <v>3</v>
@@ -12863,7 +12869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="4">
         <f t="shared" si="11"/>
         <v>330</v>
@@ -12885,7 +12891,7 @@
         <v>9</v>
       </c>
       <c r="G331" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H331" t="s">
         <v>3</v>
@@ -12900,7 +12906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <f t="shared" si="11"/>
         <v>331</v>
@@ -12922,7 +12928,7 @@
         <v>10</v>
       </c>
       <c r="G332" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H332" t="s">
         <v>3</v>
@@ -12937,7 +12943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4">
         <f t="shared" si="11"/>
         <v>332</v>
@@ -12959,7 +12965,7 @@
         <v>2</v>
       </c>
       <c r="G333" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H333" t="s">
         <v>3</v>
@@ -12974,7 +12980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <f t="shared" si="11"/>
         <v>333</v>
@@ -12996,7 +13002,7 @@
         <v>10</v>
       </c>
       <c r="G334" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H334" t="s">
         <v>3</v>
@@ -13011,7 +13017,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4">
         <f t="shared" si="11"/>
         <v>334</v>
@@ -13033,7 +13039,7 @@
         <v>22</v>
       </c>
       <c r="G335" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H335" t="s">
         <v>3</v>
@@ -13048,7 +13054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <f t="shared" si="11"/>
         <v>335</v>
@@ -13070,7 +13076,7 @@
         <v>16</v>
       </c>
       <c r="G336" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H336" t="s">
         <v>25</v>
@@ -13107,7 +13113,7 @@
         <v>9</v>
       </c>
       <c r="G337" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H337" t="s">
         <v>3</v>
@@ -13122,7 +13128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <f t="shared" si="11"/>
         <v>337</v>
@@ -13144,7 +13150,7 @@
         <v>10</v>
       </c>
       <c r="G338" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H338" t="s">
         <v>3</v>
@@ -13159,7 +13165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="4">
         <f t="shared" si="11"/>
         <v>338</v>
@@ -13181,7 +13187,7 @@
         <v>10</v>
       </c>
       <c r="G339" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H339" t="s">
         <v>3</v>
@@ -13196,7 +13202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <f t="shared" si="11"/>
         <v>339</v>
@@ -13218,7 +13224,7 @@
         <v>10</v>
       </c>
       <c r="G340" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H340" t="s">
         <v>3</v>
@@ -13233,7 +13239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4">
         <f t="shared" si="11"/>
         <v>340</v>
@@ -13255,7 +13261,7 @@
         <v>10</v>
       </c>
       <c r="G341" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H341" t="s">
         <v>3</v>
@@ -13270,7 +13276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <f t="shared" si="11"/>
         <v>341</v>
@@ -13292,7 +13298,7 @@
         <v>2</v>
       </c>
       <c r="G342" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H342" t="s">
         <v>3</v>
@@ -13307,7 +13313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="4">
         <f t="shared" si="11"/>
         <v>342</v>
@@ -13329,7 +13335,7 @@
         <v>10</v>
       </c>
       <c r="G343" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H343" t="s">
         <v>19</v>
@@ -13344,7 +13350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <f t="shared" si="11"/>
         <v>343</v>
@@ -13366,7 +13372,7 @@
         <v>16</v>
       </c>
       <c r="G344" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H344" t="s">
         <v>3</v>
@@ -13381,7 +13387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="4">
         <f t="shared" si="11"/>
         <v>344</v>
@@ -13403,7 +13409,7 @@
         <v>10</v>
       </c>
       <c r="G345" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H345" t="s">
         <v>3</v>
@@ -13418,7 +13424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <f t="shared" si="11"/>
         <v>345</v>
@@ -13440,7 +13446,7 @@
         <v>16</v>
       </c>
       <c r="G346" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H346" t="s">
         <v>3</v>
@@ -13455,7 +13461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="4">
         <f t="shared" si="11"/>
         <v>346</v>
@@ -13477,7 +13483,7 @@
         <v>16</v>
       </c>
       <c r="G347" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H347" t="s">
         <v>3</v>
@@ -13492,7 +13498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <f t="shared" si="11"/>
         <v>347</v>
@@ -13514,7 +13520,7 @@
         <v>16</v>
       </c>
       <c r="G348" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H348" t="s">
         <v>3</v>
@@ -13529,7 +13535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="4">
         <f t="shared" si="11"/>
         <v>348</v>
@@ -13551,7 +13557,7 @@
         <v>16</v>
       </c>
       <c r="G349" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H349" t="s">
         <v>3</v>
@@ -13566,7 +13572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <f t="shared" si="11"/>
         <v>349</v>
@@ -13588,7 +13594,7 @@
         <v>16</v>
       </c>
       <c r="G350" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H350" t="s">
         <v>3</v>
@@ -13603,7 +13609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="4">
         <f t="shared" si="11"/>
         <v>350</v>
@@ -13625,7 +13631,7 @@
         <v>10</v>
       </c>
       <c r="G351" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H351" t="s">
         <v>25</v>
@@ -13640,7 +13646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <f t="shared" si="11"/>
         <v>351</v>
@@ -13662,7 +13668,7 @@
         <v>16</v>
       </c>
       <c r="G352" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H352" t="s">
         <v>19</v>
@@ -13699,7 +13705,7 @@
         <v>10</v>
       </c>
       <c r="G353" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H353" t="s">
         <v>3</v>
@@ -13714,7 +13720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <f t="shared" si="11"/>
         <v>353</v>
@@ -13736,7 +13742,7 @@
         <v>10</v>
       </c>
       <c r="G354" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H354" t="s">
         <v>3</v>
@@ -13751,7 +13757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4">
         <f t="shared" si="11"/>
         <v>354</v>
@@ -13773,7 +13779,7 @@
         <v>22</v>
       </c>
       <c r="G355" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H355" t="s">
         <v>3</v>
@@ -13788,7 +13794,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <f t="shared" si="11"/>
         <v>355</v>
@@ -13810,7 +13816,7 @@
         <v>22</v>
       </c>
       <c r="G356" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H356" t="s">
         <v>3</v>
@@ -13825,7 +13831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4">
         <f t="shared" si="11"/>
         <v>356</v>
@@ -13847,7 +13853,7 @@
         <v>10</v>
       </c>
       <c r="G357" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H357" t="s">
         <v>3</v>
@@ -13862,7 +13868,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <f t="shared" si="11"/>
         <v>357</v>
@@ -13884,7 +13890,7 @@
         <v>22</v>
       </c>
       <c r="G358" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H358" t="s">
         <v>19</v>
@@ -13899,7 +13905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4">
         <f t="shared" si="11"/>
         <v>358</v>
@@ -13921,7 +13927,7 @@
         <v>10</v>
       </c>
       <c r="G359" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H359" t="s">
         <v>3</v>
@@ -13936,7 +13942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <f t="shared" si="11"/>
         <v>359</v>
@@ -13958,7 +13964,7 @@
         <v>16</v>
       </c>
       <c r="G360" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H360" t="s">
         <v>3</v>
@@ -13973,7 +13979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="4">
         <f t="shared" si="11"/>
         <v>360</v>
@@ -13995,7 +14001,7 @@
         <v>10</v>
       </c>
       <c r="G361" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H361" t="s">
         <v>3</v>
@@ -14010,7 +14016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <f t="shared" si="11"/>
         <v>361</v>
@@ -14032,7 +14038,7 @@
         <v>16</v>
       </c>
       <c r="G362" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H362" t="s">
         <v>3</v>
@@ -14047,7 +14053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="4">
         <f t="shared" si="11"/>
         <v>362</v>
@@ -14069,7 +14075,7 @@
         <v>9</v>
       </c>
       <c r="G363" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H363" t="s">
         <v>19</v>
@@ -14084,7 +14090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <f t="shared" si="11"/>
         <v>363</v>
@@ -14106,7 +14112,7 @@
         <v>22</v>
       </c>
       <c r="G364" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H364" t="s">
         <v>3</v>
@@ -14121,7 +14127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="4">
         <f t="shared" si="11"/>
         <v>364</v>
@@ -14143,7 +14149,7 @@
         <v>10</v>
       </c>
       <c r="G365" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H365" t="s">
         <v>3</v>
@@ -14158,7 +14164,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <f t="shared" si="11"/>
         <v>365</v>
@@ -14180,7 +14186,7 @@
         <v>10</v>
       </c>
       <c r="G366" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H366" t="s">
         <v>3</v>
@@ -14195,7 +14201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="4">
         <f t="shared" si="11"/>
         <v>366</v>
@@ -14217,7 +14223,7 @@
         <v>16</v>
       </c>
       <c r="G367" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H367" t="s">
         <v>3</v>
@@ -14232,7 +14238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <f t="shared" si="11"/>
         <v>367</v>
@@ -14254,7 +14260,7 @@
         <v>10</v>
       </c>
       <c r="G368" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H368" t="s">
         <v>3</v>
@@ -14269,7 +14275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="4">
         <f t="shared" si="11"/>
         <v>368</v>
@@ -14291,7 +14297,7 @@
         <v>16</v>
       </c>
       <c r="G369" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H369" t="s">
         <v>3</v>
@@ -14306,7 +14312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <f t="shared" si="11"/>
         <v>369</v>
@@ -14328,7 +14334,7 @@
         <v>10</v>
       </c>
       <c r="G370" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H370" t="s">
         <v>3</v>
@@ -14343,7 +14349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="4">
         <f t="shared" si="11"/>
         <v>370</v>
@@ -14365,7 +14371,7 @@
         <v>10</v>
       </c>
       <c r="G371" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H371" t="s">
         <v>3</v>
@@ -14380,7 +14386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <f t="shared" si="11"/>
         <v>371</v>
@@ -14402,7 +14408,7 @@
         <v>10</v>
       </c>
       <c r="G372" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H372" t="s">
         <v>3</v>
@@ -14417,172 +14423,172 @@
         <v>21</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="7"/>
       <c r="B373" s="1"/>
       <c r="F373" s="5"/>
       <c r="I373" s="6"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="8"/>
       <c r="B374" s="1"/>
       <c r="F374" s="5"/>
       <c r="I374" s="6"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="7"/>
       <c r="B375" s="1"/>
       <c r="F375" s="5"/>
       <c r="I375" s="6"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="8"/>
       <c r="B376" s="1"/>
       <c r="F376" s="5"/>
       <c r="I376" s="6"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="7"/>
       <c r="B377" s="1"/>
       <c r="F377" s="5"/>
       <c r="I377" s="6"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="8"/>
       <c r="B378" s="1"/>
       <c r="F378" s="5"/>
       <c r="I378" s="6"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="7"/>
       <c r="B379" s="1"/>
       <c r="F379" s="5"/>
       <c r="I379" s="6"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="8"/>
       <c r="B380" s="1"/>
       <c r="F380" s="5"/>
       <c r="I380" s="6"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="7"/>
       <c r="B381" s="1"/>
       <c r="F381" s="5"/>
       <c r="I381" s="6"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="8"/>
       <c r="B382" s="1"/>
       <c r="F382" s="5"/>
       <c r="I382" s="6"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="7"/>
       <c r="B383" s="1"/>
       <c r="F383" s="5"/>
       <c r="I383" s="6"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="8"/>
       <c r="B384" s="1"/>
       <c r="F384" s="5"/>
       <c r="I384" s="6"/>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="7"/>
       <c r="B385" s="1"/>
       <c r="F385" s="5"/>
       <c r="I385" s="6"/>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="8"/>
       <c r="B386" s="1"/>
       <c r="F386" s="5"/>
       <c r="I386" s="6"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="7"/>
       <c r="B387" s="1"/>
       <c r="F387" s="5"/>
       <c r="I387" s="6"/>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="8"/>
       <c r="B388" s="1"/>
       <c r="F388" s="5"/>
       <c r="I388" s="6"/>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="7"/>
       <c r="B389" s="1"/>
       <c r="F389" s="5"/>
       <c r="I389" s="6"/>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="8"/>
       <c r="B390" s="1"/>
       <c r="F390" s="5"/>
       <c r="I390" s="6"/>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="4"/>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3"/>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4"/>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3"/>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4"/>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3"/>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="4"/>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3"/>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="4"/>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="4"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="4"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="3"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="4"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="3"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="4"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="4"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3"/>
     </row>
   </sheetData>
